--- a/25 Rumus Wajib di Excel - File Latihan (1).xlsx
+++ b/25 Rumus Wajib di Excel - File Latihan (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -432,9 +432,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -549,8 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
@@ -600,10 +600,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,13 +630,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -950,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A2" zoomScale="88">
       <selection activeCell="C10" sqref="C10:C13"/>
@@ -1233,9 +1233,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70">
+    <sheetView workbookViewId="0" zoomScale="70">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1535,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="67">
       <selection activeCell="C5" sqref="C5:D5"/>
@@ -1618,10 +1618,10 @@
   <mergeCells count="10">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:B1"/>
@@ -1633,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="C1" zoomScale="63">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -1667,7 +1667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="8:8" ht="15.2">
       <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
@@ -1677,13 +1677,19 @@
       <c r="C2" s="14">
         <v>1990.0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="14" t="str">
+        <f>CONCATENATE(C2,"-",A2)</f>
+        <v>1990-HR</v>
+      </c>
+      <c r="E2" s="14">
+        <f>LEN(B2)</f>
+        <v>5.0</v>
+      </c>
       <c r="G2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="8:8" ht="15.2">
       <c r="A3" s="14" t="s">
         <v>60</v>
       </c>
@@ -1693,13 +1699,19 @@
       <c r="C3" s="14">
         <v>1994.0</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="14" t="str">
+        <f>CONCATENATE(C3,"-",A3)</f>
+        <v>1994-Finance</v>
+      </c>
+      <c r="E3" s="14">
+        <f>LEN(B3)</f>
+        <v>5.0</v>
+      </c>
       <c r="G3" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="8:8" ht="15.2">
       <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
@@ -1709,13 +1721,19 @@
       <c r="C4" s="14">
         <v>1989.0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="14" t="str">
+        <f>CONCATENATE(C4,"-",A4)</f>
+        <v>1989-Sales</v>
+      </c>
+      <c r="E4" s="14">
+        <f>LEN(B4)</f>
+        <v>8.0</v>
+      </c>
       <c r="G4" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:8" ht="15.2">
       <c r="A5" s="14" t="s">
         <v>58</v>
       </c>
@@ -1725,11 +1743,20 @@
       <c r="C5" s="14">
         <v>1997.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="14" t="str">
+        <f>CONCATENATE(C5,"-",A5)</f>
+        <v>1997-HR</v>
+      </c>
+      <c r="E5" s="14">
+        <f>LEN(B5)</f>
+        <v>7.0</v>
+      </c>
       <c r="G5" s="10" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="6" spans="8:8" ht="15.0">
+      <c r="E6" s="14"/>
     </row>
     <row r="9" spans="8:8">
       <c r="A9" s="13" t="s">
@@ -1748,49 +1775,85 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
+    <row r="10" spans="8:8" ht="15.2">
       <c r="A10" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="8:8">
+      <c r="C10" s="14" t="str">
+        <f>LEFT(B10,3)</f>
+        <v>123</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f>MID(B10,4,7)</f>
+        <v>4560101</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>RIGHT(B10,2)</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="15.2">
       <c r="A11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="8:8">
+      <c r="C11" s="14" t="str">
+        <f>LEFT(B11,3)</f>
+        <v>288</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f>MID(B11,4,7)</f>
+        <v>5670208</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>RIGHT(B11,2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" ht="15.2">
       <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="8:8">
+      <c r="C12" s="14" t="str">
+        <f>LEFT(B12,3)</f>
+        <v>139</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f>MID(B12,4,7)</f>
+        <v>8780204</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f>RIGHT(B12,2)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" ht="15.2">
       <c r="A13" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="14" t="str">
+        <f>LEFT(B13,3)</f>
+        <v>456</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f>MID(B13,4,7)</f>
+        <v>1231912</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f>RIGHT(B13,2)</f>
+        <v>04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="I1" zoomScale="69">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0" topLeftCell="B1" zoomScale="69">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -1848,7 +1911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="15.0">
+    <row r="2" spans="8:8">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2168,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="200">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="D1" zoomScale="56">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -2200,124 +2263,213 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="8:8" ht="15.1">
       <c r="A2" s="27">
         <v>44261.0</v>
       </c>
       <c r="B2" s="28">
         <v>106.0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="14" t="str">
+        <f>VLOOKUP(B2,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Fiona</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>VLOOKUP(B2,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>HLOOKUP(D2,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="8:8" ht="15.1">
       <c r="A3" s="27">
         <v>44257.0</v>
       </c>
       <c r="B3" s="28">
         <v>102.0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="H3" s="10" t="s">
+      <c r="C3" s="14" t="str">
+        <f>VLOOKUP(B3,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Budi</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f>VLOOKUP(B3,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f>HLOOKUP(D3,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="8:8" ht="15.1">
       <c r="A4" s="27">
         <v>44259.0</v>
       </c>
       <c r="B4" s="28">
         <v>104.0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="H4" s="10" t="s">
+      <c r="C4" s="14" t="str">
+        <f>VLOOKUP(B4,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Dewi</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>VLOOKUP(B4,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Surabaya</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:8" ht="15.1">
       <c r="A5" s="27">
         <v>44260.0</v>
       </c>
       <c r="B5" s="28">
         <v>105.0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="8:8">
+      <c r="C5" s="14" t="str">
+        <f>VLOOKUP(B5,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Eko</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f>VLOOKUP(B5,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>HLOOKUP(D5,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" ht="15.1">
       <c r="A6" s="27">
         <v>44265.0</v>
       </c>
       <c r="B6" s="28">
         <v>110.0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="8:8">
+      <c r="C6" s="14" t="str">
+        <f>VLOOKUP(B6,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Juned</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f>VLOOKUP(B6,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>HLOOKUP(D6,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" ht="15.1">
       <c r="A7" s="27">
         <v>44258.0</v>
       </c>
       <c r="B7" s="28">
         <v>103.0</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="8:8">
+      <c r="C7" s="14" t="str">
+        <f>VLOOKUP(B7,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Clara</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f>VLOOKUP(B7,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f>HLOOKUP(D7,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" ht="15.1">
       <c r="A8" s="27">
         <v>44263.0</v>
       </c>
       <c r="B8" s="28">
         <v>108.0</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="8:8">
+      <c r="C8" s="14" t="str">
+        <f>VLOOKUP(B8,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Hesti</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f>VLOOKUP(B8,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>HLOOKUP(D8,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" ht="15.1">
       <c r="A9" s="27">
         <v>44264.0</v>
       </c>
       <c r="B9" s="28">
         <v>109.0</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="8:8">
+      <c r="C9" s="14" t="str">
+        <f>VLOOKUP(B9,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Igna</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f>VLOOKUP(B9,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f>HLOOKUP(D9,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" ht="15.1">
       <c r="A10" s="27">
         <v>44256.0</v>
       </c>
       <c r="B10" s="28">
         <v>101.0</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="8:8">
+      <c r="C10" s="14" t="str">
+        <f>VLOOKUP(B10,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Andi</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f>VLOOKUP(B10,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>HLOOKUP(D10,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="15.1">
       <c r="A11" s="27">
         <v>44262.0</v>
       </c>
       <c r="B11" s="28">
         <v>112.0</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="14" t="e">
+        <f>VLOOKUP(B11,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="14" t="e">
+        <f>VLOOKUP(B11,'Data Referensi'!$A$2:$D$11,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="14" t="e">
+        <f>HLOOKUP(D11,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2326,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="190">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0" zoomScale="61">
+      <selection activeCell="A1" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
@@ -2338,7 +2490,7 @@
     <col min="2" max="5" customWidth="1" width="15.5703125" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="8:8" ht="15.1">
       <c r="A1" s="22" t="s">
         <v>100</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="D1" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="8:8">
+      <c r="E1" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="8:8" ht="15.1">
       <c r="A2" s="28">
         <v>101.0</v>
       </c>
@@ -2365,8 +2520,11 @@
       <c r="D2" s="29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="8:8">
+      <c r="E2" s="28">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" ht="15.1">
       <c r="A3" s="28">
         <v>102.0</v>
       </c>
@@ -2379,8 +2537,11 @@
       <c r="D3" s="29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="8:8">
+      <c r="E3" s="28">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" ht="15.1">
       <c r="A4" s="28">
         <v>103.0</v>
       </c>
@@ -2393,8 +2554,11 @@
       <c r="D4" s="29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="8:8">
+      <c r="E4" s="28">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" ht="15.1">
       <c r="A5" s="28">
         <v>104.0</v>
       </c>
@@ -2407,8 +2571,11 @@
       <c r="D5" s="29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="8:8">
+      <c r="E5" s="28">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" ht="15.1">
       <c r="A6" s="28">
         <v>105.0</v>
       </c>
@@ -2421,8 +2588,11 @@
       <c r="D6" s="29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="8:8">
+      <c r="E6" s="28">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" ht="15.1">
       <c r="A7" s="28">
         <v>106.0</v>
       </c>
@@ -2435,8 +2605,11 @@
       <c r="D7" s="29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="8:8">
+      <c r="E7" s="28">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" ht="15.1">
       <c r="A8" s="28">
         <v>107.0</v>
       </c>
@@ -2449,8 +2622,11 @@
       <c r="D8" s="29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="8:8">
+      <c r="E8" s="28">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" ht="15.1">
       <c r="A9" s="28">
         <v>108.0</v>
       </c>
@@ -2463,8 +2639,11 @@
       <c r="D9" s="29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="8:8">
+      <c r="E9" s="28">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" ht="15.1">
       <c r="A10" s="28">
         <v>109.0</v>
       </c>
@@ -2477,8 +2656,11 @@
       <c r="D10" s="29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="8:8">
+      <c r="E10" s="28">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" ht="15.1">
       <c r="A11" s="28">
         <v>110.0</v>
       </c>
@@ -2491,8 +2673,11 @@
       <c r="D11" s="29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="8:8">
+      <c r="E11" s="28">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" ht="15.1">
       <c r="A14" s="30" t="s">
         <v>112</v>
       </c>
@@ -2505,11 +2690,11 @@
       <c r="D14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
+      <c r="E14" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8" ht="15.1">
       <c r="A15" s="30" t="s">
         <v>103</v>
       </c>
@@ -2522,8 +2707,8 @@
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>115</v>
+      <c r="E15" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
